--- a/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,28%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 5,86</t>
+          <t>-6,19; 36,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 11,63</t>
+          <t>-12,05; 31,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 16,38</t>
+          <t>-9,12; 99,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 36,42</t>
+          <t>-17,4; 75,26</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>-14,3%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 5,91</t>
+          <t>-20,36; 32,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 23,74</t>
+          <t>-31,12; 22,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 21,4</t>
+          <t>-26,83; 87,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 99,86</t>
+          <t>-41,92; 54,49</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>10,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-20,09%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>19,05%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 5,85</t>
+          <t>-9,55; 18,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 14,6</t>
+          <t>-5,96; 25,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 27,8</t>
+          <t>-11,88; 30,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 58,02</t>
+          <t>-10,48; 55,97</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,12%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 15,63</t>
+          <t>-6,8; 21,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 3,9</t>
+          <t>-11,46; 17,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 67,19</t>
+          <t>-9,25; 39,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 10,51</t>
+          <t>-17,67; 36,96</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,43</t>
+          <t>19,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-42,88%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,94; -4,58</t>
+          <t>2,8; 36,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 16,21</t>
+          <t>-15,44; 19,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-65,88; -11,83</t>
+          <t>4,66; 71,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 56,8</t>
+          <t>-21,24; 34,25</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,67%</t>
+          <t>-18,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,81%</t>
+          <t>27,95%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 11,75</t>
+          <t>-34,77; 9,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 9,25</t>
+          <t>-6,97; 36,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 33,17</t>
+          <t>-45,25; 15,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 23,1</t>
+          <t>-10,8; 93,14</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,27%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -0,96</t>
+          <t>-0,84; 15,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 4,87</t>
+          <t>-3,02; 13,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -2,84</t>
+          <t>-1,27; 26,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 12,77</t>
+          <t>-4,68; 25,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>29,52%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,14%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.64794043780334</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.648066987550695</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.295203982802873</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1523573805540545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 36,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 31,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,12; 99,67</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,4; 75,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.193417580385035</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.6426158123034</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.09119715404875008</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2196732597516942</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.29829361174136</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.50662343957826</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.9967054641899572</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.6747404043865436</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-14,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-20,36; 32,25</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-31,12; 22,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-26,83; 87,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-41,92; 54,49</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.38993218254128</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.361314237618856</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.09411148049625429</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1556003590498249</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>19,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-20.3562408714824</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-31.48677001801241</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2683482550327477</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4130986905017582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,55; 18,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 25,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,88; 30,77</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; 55,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.25361592666457</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.60129140490192</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8739229773027917</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.4867962873331363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,6%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.519315484599396</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.226260292038191</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.07800073433476805</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1664640319410821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,8; 21,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,46; 17,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,25; 39,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-17,67; 36,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.548585865506752</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.211884463233637</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1188453769491</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.108288287325515</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.59162303493094</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.98775439914411</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.3076810169713993</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.5587734247721503</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>19,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>31,92%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 36,57</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 19,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,66; 71,99</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-21,24; 34,25</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.680707846724665</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.501237565447989</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1060015132678909</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.04361237410228526</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-12,57</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-18,6%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>27,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.80286586973511</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.23151044161242</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.09251284523653823</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1858256167143146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-34,77; 9,12</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 36,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-45,25; 15,73</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-10,8; 93,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.13513759826306</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.06138837102536</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3934132679841537</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3741459621131858</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>11,42%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>19.51877936734802</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.476936874518888</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.3192347687679976</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.05167945983155422</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 15,1</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 13,08</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 26,43</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 25,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>2.801255446590788</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-16.91138710391526</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.04660277876461134</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2327387022415354</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>36.56518424841369</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>18.16571357009121</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.7198986678902319</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.3053976649025659</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-10.17227557978394</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>11.6100395633512</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1504979980285124</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.2155751693489762</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-32.29895108281037</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-11.57803103708463</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4284903627600654</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1713727919432171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>11.14097979615285</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>34.02028793884541</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.187902876563161</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.8525740337025514</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>7.497898686483396</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.613130362705108</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.1200226528520812</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.06154397229548483</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.5643591933196367</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.186975351876669</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.01046094020416868</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.06673442167086305</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>15.74481210702848</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.70672934624369</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.2733449470607337</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2170982345535659</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
